--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835789.719646195</v>
+        <v>1921389.436758611</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6379744.722067286</v>
+        <v>6823307.976122713</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>160.7099315287912</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -710,7 +712,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>181.6510674715983</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -817,16 +819,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>207.4873114039632</v>
       </c>
       <c r="Y4" t="n">
-        <v>115.7861609285373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>118.8456430702453</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>22.51978202893098</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>154.0738855149442</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>215.0295102805893</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>111.2304806991525</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1142,10 +1144,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.49512077555075</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>121.3579328399116</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>57.2438748854569</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>254.3806334650102</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1528,13 +1530,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>79.04986677346962</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>63.00303595161553</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>188.7456183071124</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1765,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>141.1948926331338</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>105.2349389792872</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.9163138312167</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>87.64114226116308</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2059,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2135,13 +2137,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2251,7 +2253,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>151.8255815198964</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.696359694454052</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>60.15466974967035</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>85.20539141529345</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>130.829863711972</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
-        <v>149.175724186031</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>4.32206238845632</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>2.54060171204487</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.6705526084114</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>73.50111029899487</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>249.5410911033137</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3901,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.6470642191042</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>357.3142152358463</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4028,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>68.58356278305433</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>160.9877840950856</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.344551458719</v>
+        <v>1264.979707828593</v>
       </c>
       <c r="C2" t="n">
-        <v>1494.484225512423</v>
+        <v>1242.119381882297</v>
       </c>
       <c r="D2" t="n">
-        <v>1071.191604697424</v>
+        <v>818.8267610672968</v>
       </c>
       <c r="E2" t="n">
-        <v>908.8583405269275</v>
+        <v>796.8902252555584</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>775.8064474853627</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="V2" t="n">
-        <v>1542.1289725064</v>
+        <v>1473.250055615261</v>
       </c>
       <c r="W2" t="n">
-        <v>1542.1289725064</v>
+        <v>1289.764128876273</v>
       </c>
       <c r="X2" t="n">
-        <v>1534.449377714551</v>
+        <v>1282.084534084424</v>
       </c>
       <c r="Y2" t="n">
-        <v>1533.152511709845</v>
+        <v>1280.787668079719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>572.914647509062</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>1123.5801824935</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>1123.5801824935</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.5801824935</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="N3" t="n">
-        <v>1674.245717477938</v>
+        <v>807.4926073032677</v>
       </c>
       <c r="O3" t="n">
-        <v>1674.245717477938</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462377</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.5282373537315</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>620.5282373537315</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>620.5282373537315</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="X4" t="n">
-        <v>927.6499241754307</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.6942060657971</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595572</v>
+        <v>228.8920660633836</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728574</v>
+        <v>206.0317401170878</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>186.7795233424921</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>164.8429875307537</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2202.163997887699</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1805.772648188046</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.093053396197</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1392.755783351087</v>
+        <v>648.7404303549137</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M6" t="n">
-        <v>1153.275937980036</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.1056049944873</v>
+        <v>945.2395548897309</v>
       </c>
       <c r="C7" t="n">
-        <v>626.1330418734033</v>
+        <v>773.2669917686469</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>609.9502188954176</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>609.9502188954176</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4723,10 +4725,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
         <v>683.2064757736641</v>
@@ -4750,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1267.01226985894</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1267.01226985894</v>
+        <v>1377.969420155991</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.448373304745</v>
+        <v>1135.405523601797</v>
       </c>
       <c r="Y7" t="n">
-        <v>798.1056049944873</v>
+        <v>1135.405523601797</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030287</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4802,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139669</v>
+        <v>1859.742242796777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094559</v>
+        <v>1858.445376792072</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>874.3078922751886</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>1389.040378766978</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>1389.040378766978</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7123380797763</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>316.1285675344111</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D10" t="n">
-        <v>316.1285675344111</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E10" t="n">
-        <v>316.1285675344111</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3203208931434</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>855.2210751020999</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>628.878306791842</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.521716903027</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1079.521716903027</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>822.5715820898859</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>822.5715820898859</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4474002792861</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.138820539818</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M11" t="n">
-        <v>1977.580432937621</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>2778.022045335424</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>2778.022045335424</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335424</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480043</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.57898578039</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1484.858986948137</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1079.521716903027</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M12" t="n">
-        <v>608.7826918167198</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.8207298273589</v>
+        <v>3682.325504701758</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8207298273589</v>
+        <v>3510.352941580674</v>
       </c>
       <c r="D13" t="n">
-        <v>474.5039569541296</v>
+        <v>3347.036168707445</v>
       </c>
       <c r="E13" t="n">
-        <v>474.5039569541296</v>
+        <v>3180.827962860299</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>3180.827962860299</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>3014.570993154531</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>3014.570993154531</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2134.417134342937</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T13" t="n">
-        <v>1891.077786568836</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U13" t="n">
-        <v>1610.893338069141</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="V13" t="n">
-        <v>1329.18187067717</v>
+        <v>4616.250542105764</v>
       </c>
       <c r="W13" t="n">
-        <v>1054.329466849683</v>
+        <v>4341.398138278277</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.329466849683</v>
+        <v>4098.834241724082</v>
       </c>
       <c r="Y13" t="n">
-        <v>827.9866985394247</v>
+        <v>3872.491473413824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.6733526114974</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>659.6733526114974</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>659.6733526114974</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>659.6733526114974</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6733526114974</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>255.334290200946</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1142.793917289187</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>1943.23552968699</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2743.677142084793</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948137</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903027</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>336.3796397763832</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>1136.821252174186</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1865.134488569908</v>
+        <v>849.1301240093831</v>
       </c>
       <c r="C16" t="n">
-        <v>1865.134488569908</v>
+        <v>677.157560888299</v>
       </c>
       <c r="D16" t="n">
-        <v>1701.817715696679</v>
+        <v>677.157560888299</v>
       </c>
       <c r="E16" t="n">
-        <v>1535.609509849532</v>
+        <v>510.9493550411526</v>
       </c>
       <c r="F16" t="n">
-        <v>1363.747735624093</v>
+        <v>510.9493550411526</v>
       </c>
       <c r="G16" t="n">
-        <v>1197.490765918325</v>
+        <v>344.6923853353847</v>
       </c>
       <c r="H16" t="n">
-        <v>1053.694497426479</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.694497426479</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650637</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856474</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150895</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121146</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997181</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676945</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839607</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3187.068911526781</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>3187.068911526781</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>3080.770993365884</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>3080.770993365884</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V16" t="n">
-        <v>2799.059525973913</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W16" t="n">
-        <v>2524.207122146427</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X16" t="n">
-        <v>2281.643225592232</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="Y16" t="n">
-        <v>2055.300457281974</v>
+        <v>1039.296092721449</v>
       </c>
     </row>
     <row r="17">
@@ -5528,7 +5530,7 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5549,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1582.26891798564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1019.275630082919</v>
+        <v>3610.648223300799</v>
       </c>
       <c r="C19" t="n">
-        <v>847.303066961835</v>
+        <v>3438.675660179715</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9862940886057</v>
+        <v>3438.675660179715</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>3350.149253855308</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840363</v>
+        <v>4269.720856877318</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.877967286168</v>
+        <v>4027.156960323123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1187.877967286168</v>
+        <v>3800.814192012865</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5786,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5835,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>557.3635891120873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>557.3635891120873</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1172.586039476718</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C22" t="n">
-        <v>1000.613476355634</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>837.296703482405</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>671.0884976352585</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>499.2267234098189</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
         <v>345.8675501573982</v>
@@ -5938,22 +5940,22 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>2235.67712750613</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1955.492679006434</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V22" t="n">
-        <v>1673.781211614463</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.928807786976</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.928807786976</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y22" t="n">
-        <v>1172.586039476718</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>795.2884438199453</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>623.3158806988613</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D25" t="n">
-        <v>459.999107825632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>373.9330558909921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6187,10 +6189,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.454412532011</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>919.4582979645735</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>747.4857348434895</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D28" t="n">
-        <v>584.1689619702602</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E28" t="n">
-        <v>417.9607561231137</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2150.564363332116</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1907.225015558017</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1627.040567058321</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.040567058321</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.188163230834</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1109.624266676639</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1109.624266676639</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3751.878227437044</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>3579.90566431596</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>3416.588891442731</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>3250.380685595584</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>3078.518911370144</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>3942.044196149109</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>3942.044196149109</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>3942.044196149109</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.2282938283288</v>
+        <v>3449.17966951489</v>
       </c>
       <c r="C34" t="n">
-        <v>606.2557307072448</v>
+        <v>3277.207106393806</v>
       </c>
       <c r="D34" t="n">
-        <v>442.9389578340155</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="E34" t="n">
-        <v>276.730751986869</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8689777614294</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>4664.816174310867</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.153331232334</v>
+        <v>4383.104706918895</v>
       </c>
       <c r="W34" t="n">
-        <v>1437.300927404847</v>
+        <v>4108.252303091408</v>
       </c>
       <c r="X34" t="n">
-        <v>1194.737030850652</v>
+        <v>3865.688406537213</v>
       </c>
       <c r="Y34" t="n">
-        <v>968.3942625403945</v>
+        <v>3639.345638226955</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6922,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988736</v>
@@ -6929,43 +6931,43 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.349205754529</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905341</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7026,7 +7028,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3441.873753098051</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C37" t="n">
-        <v>3269.901189976967</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D37" t="n">
-        <v>3106.584417103737</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E37" t="n">
-        <v>3106.584417103737</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878298</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878298</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810561</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036461</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536766</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144794</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="W37" t="n">
-        <v>3864.912955317307</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X37" t="n">
-        <v>3622.349058763113</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y37" t="n">
-        <v>3441.873753098051</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q38" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025265</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1442.243920433474</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1442.243920433474</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1018.951299618474</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.951299618474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333086</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679213</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945947</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1633.224300044001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>2433.665912441804</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839606</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839606</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.18195388424</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2655.692539010489</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2259.301189310836</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>1847.581190478583</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1442.243920433474</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>865.1237628945947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945947</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>865.1237628945947</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1665.565375292397</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2012.363524151516</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>1840.390961030432</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>1677.074188157202</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>1510.865982310056</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>1363.747735624092</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>1197.490765918324</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>1053.694497426478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>1053.694497426478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>1111.185825650636</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>1337.713426856473</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>1692.402748150894</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>2083.588543121145</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>2461.080053997181</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>2816.508182676944</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>3107.107394598845</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>3234.107524839606</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>3234.107524839606</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>3234.107524839606</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2990.768177065506</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2710.58372856581</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>2428.872261173839</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>2428.872261173839</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>2428.872261173839</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>2202.529492863581</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2459.665322476906</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2032.764592490206</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1609.471971675207</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1183.495031823064</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>758.3708500124642</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2316.109577559901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2316.109577559901</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712747</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2871.385321309159</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2871.385321309159</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2871.385321309159</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2459.665322476906</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2459.665322476906</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290552</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808057</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323342</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.495589596279</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279183</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496787</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259097</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259097</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259097</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259097</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>1425.419894259097</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M45" t="n">
-        <v>2225.8615066569</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N45" t="n">
-        <v>2687.942737892124</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O45" t="n">
-        <v>2687.942737892124</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>2687.942737892124</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>3152.088214754903</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839606</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400861</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.903341698539</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618176</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757442</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357323</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710615</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1604.996624788665</v>
+        <v>3513.576815624182</v>
       </c>
       <c r="C46" t="n">
-        <v>1433.024061667581</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>1433.024061667581</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>1433.024061667581</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>1433.024061667581</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>1266.767091961813</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>1122.970823469967</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>1053.694497426478</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>1111.185825650636</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>1337.713426856473</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>1692.402748150894</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>2083.588543121145</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>2461.080053997181</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>2816.508182676944</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>3107.107394598845</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>3063.972477358741</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T46" t="n">
-        <v>2820.633129584641</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U46" t="n">
-        <v>2820.633129584641</v>
+        <v>4539.047351708093</v>
       </c>
       <c r="V46" t="n">
-        <v>2538.92166219267</v>
+        <v>4257.335884316121</v>
       </c>
       <c r="W46" t="n">
-        <v>2264.069258365183</v>
+        <v>3982.483480488635</v>
       </c>
       <c r="X46" t="n">
-        <v>2021.505361810989</v>
+        <v>3739.91958393444</v>
       </c>
       <c r="Y46" t="n">
-        <v>1795.162593500731</v>
+        <v>3513.576815624182</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>521.2079540533996</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>501.5097810124959</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>178.8848775931268</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>314.1223693938671</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>84.50867025038121</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>89.24714193129947</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8459,22 +8461,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>452.4414523720699</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>542.4468912513905</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,19 +8695,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7395285196236</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
-        <v>298.25137853287</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8787,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,19 +8932,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P14" t="n">
-        <v>414.215814207112</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>767.1603027556724</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>492.8628464086332</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>353.8126856499787</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9483,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>482.1725369225717</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>625.1822253778511</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,10 +10676,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10826,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R38" t="n">
-        <v>54.56363491934506</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>813.2903913331756</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241312</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>231.6742813916011</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>780.3378353133786</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>488.09174663296</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>164.6790611418395</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>19.72101580365717</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.430661054441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>106.1440764335932</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.163413173793373</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>135.6710153170718</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.34799519372825</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>76.90498152751189</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.76881848881376</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>234.4418978941989</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>79.34073237338153</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>19.29091348988663</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>37.60383329408452</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
-        <v>122.9281556031811</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.3615427560407</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0537982966653</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.40878801874399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>167.4048439973641</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>171.3318488891801</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>24.49609226408097</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>42.98145655059949</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26035,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>30.18731979407245</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>116.3948199196132</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>587811.1875574898</v>
+        <v>584839.1400784919</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438367.0982197566</v>
+        <v>591193.3365725112</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438367.0982197564</v>
+        <v>591193.3365725111</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591193.336572511</v>
+        <v>591193.3365725111</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591193.3365725111</v>
+        <v>591193.3365725112</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>591193.3365725112</v>
+        <v>591193.3365725111</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438367.0982197564</v>
+        <v>591193.3365725111</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438367.0982197564</v>
+        <v>591193.3365725111</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089304</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="C2" t="n">
         <v>465954.1344089305</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089304</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="E2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="F2" t="n">
-        <v>333410.0096021965</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449624.3225099576</v>
+      </c>
+      <c r="I2" t="n">
         <v>449624.3225099579</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449624.322509958</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449624.322509958</v>
       </c>
       <c r="J2" t="n">
         <v>449624.3225099579</v>
@@ -26341,19 +26343,19 @@
         <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.322509958</v>
       </c>
       <c r="M2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="N2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="O2" t="n">
-        <v>333410.0096021965</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="P2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346223</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187607.6695456101</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791778</v>
-      </c>
-      <c r="C4" t="n">
-        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>43020.44595046937</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046937</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187958</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26451,13 +26453,13 @@
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
+        <v>58064.51385187959</v>
+      </c>
+      <c r="O4" t="n">
         <v>58064.51385187964</v>
       </c>
-      <c r="O4" t="n">
-        <v>43020.44595046937</v>
-      </c>
       <c r="P4" t="n">
-        <v>43020.44595046936</v>
+        <v>58064.51385187963</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38104.74767758721</v>
+        <v>53180.54597156803</v>
       </c>
       <c r="C6" t="n">
-        <v>224509.4810923245</v>
+        <v>201102.6474187123</v>
       </c>
       <c r="D6" t="n">
-        <v>224509.4810923244</v>
+        <v>224509.4810923243</v>
       </c>
       <c r="E6" t="n">
-        <v>165900.178120703</v>
+        <v>98070.38991300798</v>
       </c>
       <c r="F6" t="n">
-        <v>241231.1292741651</v>
+        <v>313809.7464696486</v>
       </c>
       <c r="G6" t="n">
-        <v>184919.3466581081</v>
+        <v>313809.7464696487</v>
       </c>
       <c r="H6" t="n">
+        <v>313809.7464696483</v>
+      </c>
+      <c r="I6" t="n">
+        <v>313809.7464696486</v>
+      </c>
+      <c r="J6" t="n">
+        <v>187232.4778893598</v>
+      </c>
+      <c r="K6" t="n">
+        <v>295163.1461126287</v>
+      </c>
+      <c r="L6" t="n">
         <v>313809.7464696487</v>
       </c>
-      <c r="I6" t="n">
-        <v>313809.7464696487</v>
-      </c>
-      <c r="J6" t="n">
-        <v>168276.0765348321</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>133745.875014481</v>
+      </c>
+      <c r="N6" t="n">
         <v>313809.7464696486</v>
       </c>
-      <c r="L6" t="n">
-        <v>313809.7464696486</v>
-      </c>
-      <c r="M6" t="n">
-        <v>250935.8095042748</v>
-      </c>
-      <c r="N6" t="n">
-        <v>313809.7464696487</v>
-      </c>
       <c r="O6" t="n">
-        <v>241231.1292741651</v>
+        <v>313809.7464696488</v>
       </c>
       <c r="P6" t="n">
-        <v>241231.1292741653</v>
+        <v>313809.7464696483</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>261.0072389248298</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>210.7763687310583</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>32.65094618468973</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.2931796986181</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>302.0272969222485</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>331.394738696082</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.06927096824097</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>63.86484243746207</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>304.4193999494623</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27864,10 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.82850041004025</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27910,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.89490464996159</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28020,16 +28022,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>85.11443092147024</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>464.2301581780499</v>
       </c>
       <c r="O2" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>292.7793411803254</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>67.9041137177578</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35179,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,20 +35248,20 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>519.9318045371609</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>757.4274860870007</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
-        <v>275.154598020542</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P14" t="n">
-        <v>376.6404523968807</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>743.9884130334502</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>455.4718870526091</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>587.902602543405</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R38" t="n">
-        <v>19.53098502454859</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>775.8591284337439</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>209.9034401867724</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>742.9065724139468</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>466.7487184194183</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1921389.436758611</v>
+        <v>1920692.77555352</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>360.7232814924541</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>181.6510674715983</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>149.0308022213158</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>207.4873114039632</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>339.4864737632029</v>
       </c>
       <c r="F5" t="n">
-        <v>118.8456430702453</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -949,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>154.0738855149442</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.2304806991525</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>227.9209612632199</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>57.2438748854569</v>
+        <v>77.34040729634083</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1375,10 +1375,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068508</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>79.04986677346962</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>122.5362527900959</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.1948926331338</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686338</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396344</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458146</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>87.64114226116308</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486158</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>5.696359694454052</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>60.15466974967035</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>4.32206238845632</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>218.0080577057878</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>75.99979596736088</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>34.25001122122141</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>73.50111029899487</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>120.1623903431339</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>160.9877840950856</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1264.979707828593</v>
+        <v>786.0703211235872</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.119381882297</v>
+        <v>763.2099951772914</v>
       </c>
       <c r="D2" t="n">
-        <v>818.8267610672968</v>
+        <v>743.9577784026957</v>
       </c>
       <c r="E2" t="n">
-        <v>796.8902252555584</v>
+        <v>722.0212425909573</v>
       </c>
       <c r="F2" t="n">
-        <v>775.8064474853627</v>
+        <v>700.9374648207615</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347455</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771737</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="M2" t="n">
-        <v>1475.518908019602</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="N2" t="n">
-        <v>1935.106764615871</v>
+        <v>996.5799837771727</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615871</v>
+        <v>996.5799837771727</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1361.464950229784</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733967</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489012</v>
+        <v>1572.384561085422</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.250055615261</v>
+        <v>1214.895146211672</v>
       </c>
       <c r="W2" t="n">
-        <v>1289.764128876273</v>
+        <v>1214.895146211672</v>
       </c>
       <c r="X2" t="n">
-        <v>1282.084534084424</v>
+        <v>803.1751473794188</v>
       </c>
       <c r="Y2" t="n">
-        <v>1280.787668079719</v>
+        <v>801.8782813747132</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231743</v>
+        <v>796.785191776248</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231743</v>
+        <v>904.3053647676202</v>
       </c>
       <c r="M3" t="n">
-        <v>517.6410595347455</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="N3" t="n">
-        <v>807.4926073032677</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="O3" t="n">
-        <v>1286.431531545696</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>862.5976152191317</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>690.6250520980477</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>527.3082792248184</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>361.1000733776719</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>189.2382991522324</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>96.1934635164754</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1517.507422453206</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375107</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135006</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="T4" t="n">
-        <v>1521.632369360906</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="U4" t="n">
-        <v>1521.632369360906</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="V4" t="n">
-        <v>1521.632369360906</v>
+        <v>1606.356683911072</v>
       </c>
       <c r="W4" t="n">
-        <v>1521.632369360906</v>
+        <v>1331.504280083584</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1088.94038352939</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>862.5976152191317</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.8920660633836</v>
+        <v>854.9492380147275</v>
       </c>
       <c r="C5" t="n">
-        <v>206.0317401170878</v>
+        <v>428.0485080280276</v>
       </c>
       <c r="D5" t="n">
-        <v>186.7795233424921</v>
+        <v>408.7962912534319</v>
       </c>
       <c r="E5" t="n">
-        <v>164.8429875307537</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
         <v>44.79688341939484</v>
@@ -4570,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O5" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="N5" t="n">
-        <v>1768.825772958194</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1768.825772958194</v>
-      </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1862.189048931929</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1465.797699232276</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.077700400023</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="Y5" t="n">
-        <v>648.7404303549137</v>
+        <v>870.7571982658535</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>201.1892506764427</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.2395548897309</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>773.2669917686469</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>609.9502188954176</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>609.9502188954176</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
         <v>683.2064757736641</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1377.969420155991</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1135.405523601797</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1135.405523601797</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>1075.874808970094</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>1053.014483023798</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8980050821372</v>
+        <v>1033.762266249203</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>1011.825730437464</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.742242796777</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1858.445376792072</v>
+        <v>1091.68276922122</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>962.2361343535722</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5772905989112</v>
+        <v>790.2635712324882</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5772905989112</v>
+        <v>626.9467983592589</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5772905989112</v>
+        <v>460.7385925121124</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5772905989112</v>
+        <v>288.8768182866728</v>
       </c>
       <c r="G10" t="n">
-        <v>102.3203208931434</v>
+        <v>122.6198485809049</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1378.744871375896</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1152.402103065638</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L11" t="n">
-        <v>1125.089101572745</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M11" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M12" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3682.325504701758</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C13" t="n">
-        <v>3510.352941580674</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D13" t="n">
-        <v>3347.036168707445</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E13" t="n">
-        <v>3180.827962860299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F13" t="n">
-        <v>3180.827962860299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>3014.570993154531</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>3014.570993154531</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>4897.962009497735</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>4897.962009497735</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>4616.250542105764</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W13" t="n">
-        <v>4341.398138278277</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X13" t="n">
-        <v>4098.834241724082</v>
+        <v>1031.815467295608</v>
       </c>
       <c r="Y13" t="n">
-        <v>3872.491473413824</v>
+        <v>1031.815467295608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5290,13 +5290,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.300056251597</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5317,13 +5317,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.1301240093831</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>677.157560888299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>677.157560888299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>510.9493550411526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>510.9493550411526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>344.6923853353847</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5457,31 +5457,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.638861031707</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1265.638861031707</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1039.296092721449</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5545,16 +5545,16 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
@@ -5594,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>739.6560874287652</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3610.648223300799</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>3438.675660179715</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D19" t="n">
-        <v>3438.675660179715</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E19" t="n">
-        <v>3350.149253855308</v>
+        <v>350.3395418204117</v>
       </c>
       <c r="F19" t="n">
-        <v>3178.287479629868</v>
+        <v>178.4777675949721</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629868</v>
+        <v>178.4777675949721</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138023</v>
+        <v>178.4777675949721</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>4824.7577092045</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>4544.573260704805</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>4544.573260704805</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>4269.720856877318</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>4027.156960323123</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>3800.814192012865</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1992.33777973203</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1710.626312340059</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1435.773908512572</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.020009831305</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>265.6194862790578</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6554,7 +6554,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6651,22 +6651,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3449.17966951489</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3277.207106393806</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4945.000622810562</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4664.816174310867</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4383.104706918895</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4108.252303091408</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3865.688406537213</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3639.345638226955</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7022,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>756.1415250913442</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4434.41250242486</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>4434.41250242486</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W37" t="n">
-        <v>4434.41250242486</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>946.3074938034099</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,19 +7180,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7259,13 +7259,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>280.6949528282008</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>280.6949528282008</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1991.298534268705</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7423,16 +7423,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7499,10 +7499,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7657,25 +7657,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
         <v>4789.842805209199</v>
@@ -7733,19 +7733,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>730.647150085061</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O45" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3513.576815624182</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>4945.000622810562</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>4701.661275036462</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>4539.047351708093</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>4257.335884316121</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W46" t="n">
-        <v>3982.483480488635</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X46" t="n">
-        <v>3739.91958393444</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y46" t="n">
-        <v>3513.576815624182</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865907</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533996</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>501.5097810124959</v>
+        <v>521.0563139884134</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>406.146034994687</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873007</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>131.12132205905</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>506.8734716662954</v>
       </c>
       <c r="N3" t="n">
-        <v>314.1223693938671</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950871376</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
@@ -8312,7 +8312,7 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O8" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,16 +8540,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>178.3948923327714</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3767193553316</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>446.7430431677336</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9008,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>783.4760236661258</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9242,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>392.4461590409599</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>408.0034988235887</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9421,10 +9421,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>887.0392521387579</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10114,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10670,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>322.1890847023786</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10907,16 +10907,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11071,7 +11071,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19.72101580365717</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>117.602004798557</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>1.163413173793373</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919311</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>76.90498152751189</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>23.35757892987466</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>234.4418978941989</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>19.29091348988663</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.3615427560407</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.37454630891094</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>148.0795446597945</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>135.8931452619638</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.4048439973641</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>68.10191868181111</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>114.6701458615095</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>116.3948199196132</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591193.3365725112</v>
+        <v>591193.3365725111</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089305</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="C2" t="n">
         <v>465954.1344089305</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089303</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
+        <v>449624.3225099577</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="G2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="F2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449624.322509958</v>
-      </c>
       <c r="H2" t="n">
-        <v>449624.3225099576</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="I2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="J2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="K2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="M2" t="n">
         <v>449624.322509958</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>449624.3225099578</v>
       </c>
-      <c r="O2" t="n">
-        <v>449624.3225099581</v>
-      </c>
       <c r="P2" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187958</v>
       </c>
       <c r="F4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187958</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187958</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187958</v>
+        <v>58064.5138518796</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
@@ -26453,13 +26453,13 @@
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.5138518796</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53180.54597156803</v>
+        <v>53180.54597156809</v>
       </c>
       <c r="C6" t="n">
-        <v>201102.6474187123</v>
+        <v>201102.6474187122</v>
       </c>
       <c r="D6" t="n">
-        <v>224509.4810923243</v>
+        <v>224509.4810923245</v>
       </c>
       <c r="E6" t="n">
-        <v>98070.38991300798</v>
+        <v>98019.3592508236</v>
       </c>
       <c r="F6" t="n">
-        <v>313809.7464696486</v>
+        <v>313758.7158074642</v>
       </c>
       <c r="G6" t="n">
-        <v>313809.7464696487</v>
+        <v>313758.7158074644</v>
       </c>
       <c r="H6" t="n">
-        <v>313809.7464696483</v>
+        <v>313758.7158074642</v>
       </c>
       <c r="I6" t="n">
-        <v>313809.7464696486</v>
+        <v>313758.7158074642</v>
       </c>
       <c r="J6" t="n">
-        <v>187232.4778893598</v>
+        <v>187181.4472271755</v>
       </c>
       <c r="K6" t="n">
-        <v>295163.1461126287</v>
+        <v>295112.1154504443</v>
       </c>
       <c r="L6" t="n">
-        <v>313809.7464696487</v>
+        <v>313758.7158074641</v>
       </c>
       <c r="M6" t="n">
-        <v>133745.875014481</v>
+        <v>133694.8443522967</v>
       </c>
       <c r="N6" t="n">
-        <v>313809.7464696486</v>
+        <v>313758.7158074643</v>
       </c>
       <c r="O6" t="n">
-        <v>313809.7464696488</v>
+        <v>313758.7158074642</v>
       </c>
       <c r="P6" t="n">
-        <v>313809.7464696483</v>
+        <v>313758.7158074642</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39.5723902939917</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>210.7763687310583</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.56359778739437</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>32.65094618468973</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>82.23069669041809</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>302.0272969222485</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.06927096824097</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.4193999494623</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>192.9519787292739</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>85.11443092147024</v>
+        <v>65.01789851058632</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.065201566798978e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28107,10 +28107,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-5.874584695597796e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.190235309205071e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.068218218301369e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>464.2301581780499</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>368.5706731844557</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>108.6062353448204</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="N3" t="n">
-        <v>292.7793411803254</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201028931</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
@@ -35032,7 +35032,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>444.6058781505029</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>424.2279564535041</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,16 +35658,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>760.3041339439036</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391523</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>369.3493785286319</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36141,10 +36141,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>865.6962239252163</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>286.0644100977806</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
